--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_purchase_annual.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_purchase_annual.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\Template Report Pabi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>NSTDA</t>
-  </si>
-  <si>
-    <t>Purchase Purchase Annual Report</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -50,34 +44,55 @@
     <t>จำนวน PO</t>
   </si>
   <si>
-    <t>จำนวนเงินรวม (รวม VAT)</t>
-  </si>
-  <si>
     <t>สกุลเงิน</t>
+  </si>
+  <si>
+    <t>รายงานสรุปผลการจัดซื้อจัดจ้างประจำปี</t>
+  </si>
+  <si>
+    <t>จากวันที่</t>
+  </si>
+  <si>
+    <t>ถึงวันที่</t>
+  </si>
+  <si>
+    <t>จำนวนเงินรวม 
+(รวม VAT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -89,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,41 +127,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,102 +488,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" style="2"/>
-    <col min="7" max="7" width="21.33203125" style="7"/>
-    <col min="8" max="8" width="21.33203125" style="2"/>
-    <col min="9" max="9" width="21.33203125" style="7"/>
-    <col min="10" max="11" width="21.33203125" style="2"/>
-    <col min="12" max="12" width="21.33203125" style="8"/>
-    <col min="13" max="16384" width="21.33203125" style="3"/>
+    <col min="1" max="1" width="9.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" style="2"/>
+    <col min="8" max="8" width="21.36328125" style="3"/>
+    <col min="9" max="9" width="21.36328125" style="2"/>
+    <col min="10" max="11" width="21.36328125" style="3"/>
+    <col min="12" max="12" width="21.36328125" style="4"/>
+    <col min="13" max="16384" width="21.36328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="C7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="8" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_purchase_annual.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_purchase_annual.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\Template Report Pabi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -163,50 +163,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,284 +490,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.36328125" style="2"/>
-    <col min="8" max="8" width="21.36328125" style="3"/>
-    <col min="9" max="9" width="21.36328125" style="2"/>
-    <col min="10" max="11" width="21.36328125" style="3"/>
-    <col min="12" max="12" width="21.36328125" style="4"/>
-    <col min="13" max="16384" width="21.36328125" style="5"/>
+    <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="2"/>
+    <col min="8" max="8" width="21.33203125" style="3"/>
+    <col min="9" max="9" width="21.33203125" style="2"/>
+    <col min="10" max="11" width="21.33203125" style="3"/>
+    <col min="12" max="12" width="21.33203125" style="4"/>
+    <col min="13" max="16384" width="21.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+    <row r="8" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="18"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="18"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="18"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="18"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="18"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="18"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="18"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
